--- a/Other Files/original_comparison table(pushed to Google Sheets).xlsx
+++ b/Other Files/original_comparison table(pushed to Google Sheets).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ad26693/Development/Repos/annual-reviews/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ad26693/Development/Repos/annual-reviews/Other Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6E38A8-9A7F-0D4A-A4D7-FF53E2CCB0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9668031-4F85-8940-9AA3-9F79920DF015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="2880" windowWidth="38420" windowHeight="22640" xr2:uid="{1350A0DA-5E7B-1C41-A735-B10335508F64}"/>
+    <workbookView xWindow="660" yWindow="760" windowWidth="29580" windowHeight="18880" xr2:uid="{1350A0DA-5E7B-1C41-A735-B10335508F64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,33 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={5F117145-E604-2A49-A64D-F5635F3530AE}</author>
+    <author>tc={BAB3CBC7-7AB2-4549-8C5A-29D024454D95}</author>
+  </authors>
+  <commentList>
+    <comment ref="C61" authorId="0" shapeId="0" xr:uid="{5F117145-E604-2A49-A64D-F5635F3530AE}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    CORRECTED</t>
+      </text>
+    </comment>
+    <comment ref="B80" authorId="1" shapeId="0" xr:uid="{BAB3CBC7-7AB2-4549-8C5A-29D024454D95}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Incorrect spelling in Shultz et al</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -708,9 +735,6 @@
     <t>Lepilemur_petteri</t>
   </si>
   <si>
-    <t>Lepilemur_randrianasoloi</t>
-  </si>
-  <si>
     <t>Lepilemur_ruficaudatus</t>
   </si>
   <si>
@@ -889,13 +913,16 @@
   </si>
   <si>
     <t>referred to as Tarsius syrichta in some studies; species name changed to match phylogenetic tree</t>
+  </si>
+  <si>
+    <t>Lepilemur randrianasoloi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -911,13 +938,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -932,7 +978,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -943,6 +989,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -958,6 +1005,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Di Fiore, Anthony" id="{B84ADBB5-AAC1-AB47-A400-DB0D447CD72C}" userId="S::anthony.difiore@austin.utexas.edu::e438c71e-2ca2-4e30-bcc3-472ec5800179" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1275,12 +1328,23 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C61" dT="2025-02-16T19:59:20.50" personId="{B84ADBB5-AAC1-AB47-A400-DB0D447CD72C}" id="{5F117145-E604-2A49-A64D-F5635F3530AE}">
+    <text>CORRECTED</text>
+  </threadedComment>
+  <threadedComment ref="B80" dT="2025-02-16T19:59:05.05" personId="{B84ADBB5-AAC1-AB47-A400-DB0D447CD72C}" id="{BAB3CBC7-7AB2-4549-8C5A-29D024454D95}">
+    <text>Incorrect spelling in Shultz et al</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535C72BD-53FF-3044-BBFB-170DFC0FF44B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535C72BD-53FF-3044-BBFB-170DFC0FF44B}">
   <dimension ref="A1:T126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1347,22 +1411,22 @@
         <v>79</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="P1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="P1" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>57</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -1406,7 +1470,7 @@
         <v>29</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>61</v>
@@ -1438,7 +1502,7 @@
         <v>30</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>61</v>
@@ -1485,7 +1549,7 @@
         <v>28</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>61</v>
@@ -1541,7 +1605,7 @@
         <v>64</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>61</v>
@@ -1570,7 +1634,7 @@
         <v>30</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>61</v>
@@ -1596,7 +1660,7 @@
         <v>30</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>61</v>
@@ -1628,7 +1692,7 @@
         <v>30</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>61</v>
@@ -1657,7 +1721,7 @@
         <v>28</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>61</v>
@@ -1689,13 +1753,13 @@
         <v>28</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>61</v>
       </c>
       <c r="T10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -1721,7 +1785,7 @@
         <v>28</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>61</v>
@@ -1750,7 +1814,7 @@
         <v>28</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>61</v>
@@ -1779,7 +1843,7 @@
         <v>28</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>61</v>
@@ -1811,7 +1875,7 @@
         <v>28</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>61</v>
@@ -1840,7 +1904,7 @@
         <v>28</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>61</v>
@@ -1869,7 +1933,7 @@
         <v>28</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>61</v>
@@ -1898,7 +1962,7 @@
         <v>28</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>61</v>
@@ -1927,7 +1991,7 @@
         <v>28</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>61</v>
@@ -1956,7 +2020,7 @@
         <v>28</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>61</v>
@@ -1985,7 +2049,7 @@
         <v>28</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>61</v>
@@ -2038,7 +2102,7 @@
         <v>65</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>61</v>
@@ -2076,7 +2140,7 @@
         <v>28</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>61</v>
@@ -2123,7 +2187,7 @@
         <v>29</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>61</v>
@@ -2161,7 +2225,7 @@
         <v>28</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>61</v>
@@ -2190,7 +2254,7 @@
         <v>28</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>61</v>
@@ -2219,7 +2283,7 @@
         <v>28</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>61</v>
@@ -2248,7 +2312,7 @@
         <v>28</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>61</v>
@@ -2301,7 +2365,7 @@
         <v>65</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>61</v>
@@ -2330,7 +2394,7 @@
         <v>28</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>61</v>
@@ -2371,7 +2435,7 @@
         <v>64</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>61</v>
@@ -2403,7 +2467,7 @@
         <v>28</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>61</v>
@@ -2429,7 +2493,7 @@
         <v>28</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>61</v>
@@ -2482,7 +2546,7 @@
         <v>65</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>61</v>
@@ -2520,7 +2584,7 @@
         <v>35</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S34" s="1" t="s">
         <v>61</v>
@@ -2546,7 +2610,7 @@
         <v>28</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S35" s="1" t="s">
         <v>61</v>
@@ -2590,7 +2654,7 @@
         <v>65</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S36" s="1" t="s">
         <v>61</v>
@@ -2616,7 +2680,7 @@
         <v>28</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S37" s="1" t="s">
         <v>61</v>
@@ -2660,13 +2724,13 @@
         <v>65</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S38" s="1" t="s">
         <v>61</v>
       </c>
       <c r="T38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
@@ -2695,7 +2759,7 @@
         <v>28</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S39" s="1" t="s">
         <v>61</v>
@@ -2733,7 +2797,7 @@
         <v>28</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S40" s="1" t="s">
         <v>61</v>
@@ -2765,7 +2829,7 @@
         <v>28</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S41" s="1" t="s">
         <v>61</v>
@@ -2797,7 +2861,7 @@
         <v>28</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S42" s="1" t="s">
         <v>61</v>
@@ -2841,7 +2905,7 @@
         <v>65</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S43" s="1" t="s">
         <v>61</v>
@@ -2867,7 +2931,7 @@
         <v>28</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S44" s="1" t="s">
         <v>61</v>
@@ -2899,7 +2963,7 @@
         <v>28</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S45" s="1" t="s">
         <v>61</v>
@@ -2925,7 +2989,7 @@
         <v>28</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S46" s="1" t="s">
         <v>61</v>
@@ -2963,7 +3027,7 @@
         <v>35</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S47" s="1" t="s">
         <v>61</v>
@@ -2995,7 +3059,7 @@
         <v>28</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S48" s="1" t="s">
         <v>61</v>
@@ -3048,13 +3112,13 @@
         <v>64</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S49" s="1" t="s">
         <v>61</v>
       </c>
       <c r="T49" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
@@ -3104,7 +3168,7 @@
         <v>65</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S50" s="1" t="s">
         <v>61</v>
@@ -3151,7 +3215,7 @@
         <v>28</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S51" s="1" t="s">
         <v>61</v>
@@ -3183,7 +3247,7 @@
         <v>28</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S52" s="1" t="s">
         <v>61</v>
@@ -3212,7 +3276,7 @@
         <v>30</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S53" s="1" t="s">
         <v>61</v>
@@ -3241,7 +3305,7 @@
         <v>30</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S54" s="1" t="s">
         <v>61</v>
@@ -3288,7 +3352,7 @@
         <v>30</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S55" s="1" t="s">
         <v>61</v>
@@ -3326,7 +3390,7 @@
         <v>9</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S56" s="1" t="s">
         <v>61</v>
@@ -3373,7 +3437,7 @@
         <v>30</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S57" s="1" t="s">
         <v>61</v>
@@ -3402,7 +3466,7 @@
         <v>30</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S58" s="1" t="s">
         <v>61</v>
@@ -3431,7 +3495,7 @@
         <v>30</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S59" s="1" t="s">
         <v>61</v>
@@ -3463,7 +3527,7 @@
         <v>30</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S60" s="1" t="s">
         <v>61</v>
@@ -3476,20 +3540,20 @@
       <c r="B61" t="s">
         <v>144</v>
       </c>
-      <c r="C61" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" t="s">
-        <v>37</v>
-      </c>
-      <c r="E61" t="s">
-        <v>1</v>
+      <c r="C61" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>30</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S61" s="1" t="s">
         <v>61</v>
@@ -3524,7 +3588,7 @@
         <v>28</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S62" s="1" t="s">
         <v>61</v>
@@ -3553,7 +3617,7 @@
         <v>28</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S63" s="1" t="s">
         <v>61</v>
@@ -3591,7 +3655,7 @@
         <v>28</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S64" s="1" t="s">
         <v>61</v>
@@ -3620,7 +3684,7 @@
         <v>28</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S65" s="1" t="s">
         <v>61</v>
@@ -3658,7 +3722,7 @@
         <v>28</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S66" s="1" t="s">
         <v>61</v>
@@ -3711,7 +3775,7 @@
         <v>64</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S67" s="1" t="s">
         <v>61</v>
@@ -3740,7 +3804,7 @@
         <v>28</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S68" s="1" t="s">
         <v>61</v>
@@ -3769,7 +3833,7 @@
         <v>28</v>
       </c>
       <c r="R69" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S69" s="1" t="s">
         <v>61</v>
@@ -3798,7 +3862,7 @@
         <v>28</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S70" s="1" t="s">
         <v>61</v>
@@ -3827,7 +3891,7 @@
         <v>28</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S71" s="1" t="s">
         <v>61</v>
@@ -3880,13 +3944,13 @@
         <v>65</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S72" s="1" t="s">
         <v>61</v>
       </c>
       <c r="T72" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
@@ -3921,7 +3985,7 @@
         <v>28</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S73" s="1" t="s">
         <v>61</v>
@@ -3950,7 +4014,7 @@
         <v>28</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S74" s="1" t="s">
         <v>61</v>
@@ -3979,7 +4043,7 @@
         <v>28</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S75" s="1" t="s">
         <v>61</v>
@@ -4008,7 +4072,7 @@
         <v>28</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S76" s="1" t="s">
         <v>61</v>
@@ -4055,7 +4119,7 @@
         <v>28</v>
       </c>
       <c r="R77" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S77" s="1" t="s">
         <v>61</v>
@@ -4084,7 +4148,7 @@
         <v>28</v>
       </c>
       <c r="R78" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S78" s="1" t="s">
         <v>61</v>
@@ -4113,7 +4177,7 @@
         <v>28</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S79" s="1" t="s">
         <v>61</v>
@@ -4123,8 +4187,8 @@
       <c r="A80" t="s">
         <v>56</v>
       </c>
-      <c r="B80" t="s">
-        <v>163</v>
+      <c r="B80" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -4148,7 +4212,7 @@
         <v>28</v>
       </c>
       <c r="R80" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S80" s="1" t="s">
         <v>61</v>
@@ -4159,7 +4223,7 @@
         <v>56</v>
       </c>
       <c r="B81" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -4201,13 +4265,13 @@
         <v>64</v>
       </c>
       <c r="R81" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S81" s="1" t="s">
         <v>61</v>
       </c>
       <c r="T81" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
@@ -4215,7 +4279,7 @@
         <v>56</v>
       </c>
       <c r="B82" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -4239,7 +4303,7 @@
         <v>28</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S82" s="1" t="s">
         <v>61</v>
@@ -4250,7 +4314,7 @@
         <v>56</v>
       </c>
       <c r="B83" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -4274,7 +4338,7 @@
         <v>28</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S83" s="1" t="s">
         <v>61</v>
@@ -4285,7 +4349,7 @@
         <v>56</v>
       </c>
       <c r="B84" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -4312,7 +4376,7 @@
         <v>28</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S84" s="1" t="s">
         <v>61</v>
@@ -4323,7 +4387,7 @@
         <v>56</v>
       </c>
       <c r="B85" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -4341,7 +4405,7 @@
         <v>28</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S85" s="1" t="s">
         <v>61</v>
@@ -4352,7 +4416,7 @@
         <v>56</v>
       </c>
       <c r="B86" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -4370,7 +4434,7 @@
         <v>28</v>
       </c>
       <c r="R86" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S86" s="1" t="s">
         <v>61</v>
@@ -4381,7 +4445,7 @@
         <v>56</v>
       </c>
       <c r="B87" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C87" t="s">
         <v>12</v>
@@ -4402,7 +4466,7 @@
         <v>28</v>
       </c>
       <c r="R87" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S87" s="1" t="s">
         <v>61</v>
@@ -4413,7 +4477,7 @@
         <v>56</v>
       </c>
       <c r="B88" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C88" t="s">
         <v>12</v>
@@ -4440,7 +4504,7 @@
         <v>28</v>
       </c>
       <c r="R88" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S88" s="1" t="s">
         <v>61</v>
@@ -4451,7 +4515,7 @@
         <v>56</v>
       </c>
       <c r="B89" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C89" t="s">
         <v>12</v>
@@ -4487,7 +4551,7 @@
         <v>29</v>
       </c>
       <c r="R89" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S89" s="1" t="s">
         <v>61</v>
@@ -4498,7 +4562,7 @@
         <v>56</v>
       </c>
       <c r="B90" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C90" t="s">
         <v>12</v>
@@ -4531,7 +4595,7 @@
         <v>65</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S90" s="1" t="s">
         <v>61</v>
@@ -4542,7 +4606,7 @@
         <v>56</v>
       </c>
       <c r="B91" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C91" t="s">
         <v>12</v>
@@ -4563,7 +4627,7 @@
         <v>28</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S91" s="1" t="s">
         <v>61</v>
@@ -4574,7 +4638,7 @@
         <v>56</v>
       </c>
       <c r="B92" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C92" t="s">
         <v>12</v>
@@ -4610,7 +4674,7 @@
         <v>28</v>
       </c>
       <c r="R92" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S92" s="1" t="s">
         <v>61</v>
@@ -4621,7 +4685,7 @@
         <v>56</v>
       </c>
       <c r="B93" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C93" t="s">
         <v>12</v>
@@ -4639,7 +4703,7 @@
         <v>28</v>
       </c>
       <c r="R93" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S93" s="1" t="s">
         <v>61</v>
@@ -4650,7 +4714,7 @@
         <v>56</v>
       </c>
       <c r="B94" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C94" t="s">
         <v>12</v>
@@ -4668,7 +4732,7 @@
         <v>28</v>
       </c>
       <c r="R94" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S94" s="1" t="s">
         <v>61</v>
@@ -4679,7 +4743,7 @@
         <v>56</v>
       </c>
       <c r="B95" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C95" t="s">
         <v>12</v>
@@ -4706,7 +4770,7 @@
         <v>28</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S95" s="1" t="s">
         <v>61</v>
@@ -4717,7 +4781,7 @@
         <v>56</v>
       </c>
       <c r="B96" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C96" t="s">
         <v>12</v>
@@ -4753,7 +4817,7 @@
         <v>28</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S96" s="1" t="s">
         <v>61</v>
@@ -4764,7 +4828,7 @@
         <v>56</v>
       </c>
       <c r="B97" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C97" t="s">
         <v>12</v>
@@ -4779,7 +4843,7 @@
         <v>28</v>
       </c>
       <c r="R97" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S97" s="1" t="s">
         <v>61</v>
@@ -4790,7 +4854,7 @@
         <v>56</v>
       </c>
       <c r="B98" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C98" t="s">
         <v>46</v>
@@ -4826,13 +4890,13 @@
         <v>28</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S98" s="1" t="s">
         <v>61</v>
       </c>
       <c r="T98" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.2">
@@ -4840,7 +4904,7 @@
         <v>56</v>
       </c>
       <c r="B99" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C99" t="s">
         <v>46</v>
@@ -4861,7 +4925,7 @@
         <v>28</v>
       </c>
       <c r="R99" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S99" s="1" t="s">
         <v>61</v>
@@ -4872,7 +4936,7 @@
         <v>56</v>
       </c>
       <c r="B100" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C100" t="s">
         <v>46</v>
@@ -4899,7 +4963,7 @@
         <v>10</v>
       </c>
       <c r="R100" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S100" s="1" t="s">
         <v>61</v>
@@ -4910,7 +4974,7 @@
         <v>56</v>
       </c>
       <c r="B101" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C101" t="s">
         <v>46</v>
@@ -4925,7 +4989,7 @@
         <v>28</v>
       </c>
       <c r="R101" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S101" s="1" t="s">
         <v>61</v>
@@ -4936,7 +5000,7 @@
         <v>56</v>
       </c>
       <c r="B102" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C102" t="s">
         <v>46</v>
@@ -4960,7 +5024,7 @@
         <v>10</v>
       </c>
       <c r="R102" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S102" s="1" t="s">
         <v>61</v>
@@ -4971,7 +5035,7 @@
         <v>56</v>
       </c>
       <c r="B103" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C103" t="s">
         <v>46</v>
@@ -5001,7 +5065,7 @@
         <v>8</v>
       </c>
       <c r="R103" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S103" s="1" t="s">
         <v>61</v>
@@ -5012,7 +5076,7 @@
         <v>56</v>
       </c>
       <c r="B104" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C104" t="s">
         <v>46</v>
@@ -5048,13 +5112,13 @@
         <v>28</v>
       </c>
       <c r="R104" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S104" s="1" t="s">
         <v>61</v>
       </c>
       <c r="T104" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.2">
@@ -5062,7 +5126,7 @@
         <v>56</v>
       </c>
       <c r="B105" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C105" t="s">
         <v>46</v>
@@ -5092,7 +5156,7 @@
         <v>10</v>
       </c>
       <c r="R105" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S105" s="1" t="s">
         <v>61</v>
@@ -5103,7 +5167,7 @@
         <v>56</v>
       </c>
       <c r="B106" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C106" t="s">
         <v>46</v>
@@ -5121,7 +5185,7 @@
         <v>40</v>
       </c>
       <c r="R106" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S106" s="1" t="s">
         <v>61</v>
@@ -5132,7 +5196,7 @@
         <v>62</v>
       </c>
       <c r="B107" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D107" t="s">
         <v>63</v>
@@ -5141,7 +5205,7 @@
         <v>81</v>
       </c>
       <c r="R107" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S107" s="1" t="s">
         <v>61</v>
@@ -5152,7 +5216,7 @@
         <v>51</v>
       </c>
       <c r="B108" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D108" t="s">
         <v>52</v>
@@ -5170,7 +5234,7 @@
         <v>31</v>
       </c>
       <c r="R108" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T108" t="s">
         <v>70</v>
@@ -5181,7 +5245,7 @@
         <v>50</v>
       </c>
       <c r="B109" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D109" t="s">
         <v>49</v>
@@ -5196,7 +5260,7 @@
         <v>31</v>
       </c>
       <c r="R109" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T109" t="s">
         <v>72</v>
@@ -5207,7 +5271,7 @@
         <v>50</v>
       </c>
       <c r="B110" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D110" t="s">
         <v>49</v>
@@ -5225,7 +5289,7 @@
         <v>31</v>
       </c>
       <c r="R110" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.2">
@@ -5236,7 +5300,7 @@
         <v>71</v>
       </c>
       <c r="D111" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E111" t="s">
         <v>71</v>
@@ -5248,7 +5312,7 @@
         <v>30</v>
       </c>
       <c r="R111" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S111" s="1" t="s">
         <v>61</v>
@@ -5262,7 +5326,7 @@
         <v>54</v>
       </c>
       <c r="B112" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D112" t="s">
         <v>53</v>
@@ -5276,7 +5340,7 @@
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
       <c r="R112" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S112" s="1" t="s">
         <v>60</v>
@@ -5287,7 +5351,7 @@
         <v>54</v>
       </c>
       <c r="B113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D113" t="s">
         <v>53</v>
@@ -5301,7 +5365,7 @@
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
       <c r="R113" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S113" s="1" t="s">
         <v>60</v>
@@ -5312,7 +5376,7 @@
         <v>54</v>
       </c>
       <c r="B114" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D114" t="s">
         <v>53</v>
@@ -5326,7 +5390,7 @@
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
       <c r="R114" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S114" s="1" t="s">
         <v>60</v>
@@ -5337,7 +5401,7 @@
         <v>54</v>
       </c>
       <c r="B115" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D115" t="s">
         <v>53</v>
@@ -5357,7 +5421,7 @@
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
       <c r="R115" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S115" s="1" t="s">
         <v>60</v>
@@ -5371,7 +5435,7 @@
         <v>54</v>
       </c>
       <c r="B116" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D116" t="s">
         <v>53</v>
@@ -5389,7 +5453,7 @@
         <v>30</v>
       </c>
       <c r="R116" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S116" s="1" t="s">
         <v>60</v>
@@ -5403,7 +5467,7 @@
         <v>54</v>
       </c>
       <c r="B117" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D117" t="s">
         <v>53</v>
@@ -5417,7 +5481,7 @@
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
       <c r="R117" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S117" s="1" t="s">
         <v>60</v>
@@ -5428,7 +5492,7 @@
         <v>54</v>
       </c>
       <c r="B118" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D118" t="s">
         <v>53</v>
@@ -5446,7 +5510,7 @@
         <v>30</v>
       </c>
       <c r="R118" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S118" s="1" t="s">
         <v>60</v>
@@ -5460,7 +5524,7 @@
         <v>54</v>
       </c>
       <c r="B119" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D119" t="s">
         <v>53</v>
@@ -5478,7 +5542,7 @@
         <v>30</v>
       </c>
       <c r="R119" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S119" s="1" t="s">
         <v>60</v>
@@ -5492,7 +5556,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D120" t="s">
         <v>53</v>
@@ -5506,7 +5570,7 @@
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
       <c r="R120" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S120" s="1" t="s">
         <v>60</v>
@@ -5517,7 +5581,7 @@
         <v>54</v>
       </c>
       <c r="B121" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D121" t="s">
         <v>53</v>
@@ -5535,7 +5599,7 @@
         <v>30</v>
       </c>
       <c r="R121" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S121" s="1" t="s">
         <v>60</v>
@@ -5549,7 +5613,7 @@
         <v>54</v>
       </c>
       <c r="B122" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D122" t="s">
         <v>53</v>
@@ -5563,7 +5627,7 @@
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
       <c r="R122" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S122" s="1" t="s">
         <v>60</v>
@@ -5574,7 +5638,7 @@
         <v>54</v>
       </c>
       <c r="B123" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D123" t="s">
         <v>53</v>
@@ -5588,7 +5652,7 @@
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
       <c r="R123" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S123" s="1" t="s">
         <v>60</v>
@@ -5599,7 +5663,7 @@
         <v>54</v>
       </c>
       <c r="B124" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D124" t="s">
         <v>53</v>
@@ -5613,7 +5677,7 @@
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
       <c r="R124" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S124" s="1" t="s">
         <v>60</v>
@@ -5624,7 +5688,7 @@
         <v>54</v>
       </c>
       <c r="B125" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D125" t="s">
         <v>53</v>
@@ -5638,7 +5702,7 @@
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
       <c r="R125" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S125" s="1" t="s">
         <v>60</v>
@@ -5649,7 +5713,7 @@
         <v>54</v>
       </c>
       <c r="B126" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D126" t="s">
         <v>53</v>
@@ -5667,7 +5731,7 @@
         <v>30</v>
       </c>
       <c r="R126" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S126" s="1" t="s">
         <v>60</v>
@@ -5684,5 +5748,6 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>